--- a/Dim_Componentes_VSP.xlsx
+++ b/Dim_Componentes_VSP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcjua\Desktop\Tablas_Referencia_AT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcjua\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F720D04B-7165-412E-9F8E-C8C5050545E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8452BB80-C131-4B48-B9CD-373921978EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6625EA50-83D4-486A-A0BA-E91AF6E8BE6B}"/>
   </bookViews>
@@ -2395,8 +2395,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:I167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="C164" sqref="C164"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="G166" sqref="G166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7249,7 +7249,7 @@
         <v>544</v>
       </c>
       <c r="H167" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I167" s="6" t="s">
         <v>515</v>

--- a/Dim_Componentes_VSP.xlsx
+++ b/Dim_Componentes_VSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcjua\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8452BB80-C131-4B48-B9CD-373921978EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77A2BF7-1986-4197-A4AD-2C9C9F92DBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6625EA50-83D4-486A-A0BA-E91AF6E8BE6B}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="547">
   <si>
     <t>Id_Global</t>
   </si>
@@ -1689,6 +1689,9 @@
   </si>
   <si>
     <t>Puntaje_Esperado</t>
+  </si>
+  <si>
+    <t>ddd</t>
   </si>
 </sst>
 </file>
@@ -2396,7 +2399,7 @@
   <dimension ref="A1:I167"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="G166" sqref="G166"/>
+      <selection activeCell="D159" sqref="D159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7123,8 +7126,8 @@
       <c r="D163" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E163" s="6">
-        <v>5</v>
+      <c r="E163" s="6" t="s">
+        <v>546</v>
       </c>
       <c r="F163" s="6" t="s">
         <v>525</v>

--- a/Dim_Componentes_VSP.xlsx
+++ b/Dim_Componentes_VSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcjua\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77A2BF7-1986-4197-A4AD-2C9C9F92DBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAE4B26-77A6-49DE-BFD0-32461CF720BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6625EA50-83D4-486A-A0BA-E91AF6E8BE6B}"/>
   </bookViews>
@@ -1664,9 +1664,6 @@
     <t>12_3_1</t>
   </si>
   <si>
-    <t>Todos los casos notificados, de mayores de 6 meses, deben tener una de las 3 opciones que contempla  la ficha de notificación (positiva, negativa, no se realizó)</t>
-  </si>
-  <si>
     <t>12_3</t>
   </si>
   <si>
@@ -1692,6 +1689,9 @@
   </si>
   <si>
     <t>ddd</t>
+  </si>
+  <si>
+    <t>|</t>
   </si>
 </sst>
 </file>
@@ -2399,7 +2399,7 @@
   <dimension ref="A1:I167"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="D159" sqref="D159"/>
+      <selection activeCell="E164" sqref="E164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2429,7 +2429,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -7127,7 +7127,7 @@
         <v>18</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F163" s="6" t="s">
         <v>525</v>
@@ -7208,7 +7208,7 @@
         <v>536</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="D166" s="6" t="s">
         <v>11</v>
@@ -7217,10 +7217,10 @@
         <v>15</v>
       </c>
       <c r="F166" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="G166" s="9" t="s">
         <v>538</v>
-      </c>
-      <c r="G166" s="9" t="s">
-        <v>539</v>
       </c>
       <c r="H166" s="6">
         <v>12</v>
@@ -7231,13 +7231,13 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="B167" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="B167" s="7" t="s">
+      <c r="C167" s="8" t="s">
         <v>541</v>
-      </c>
-      <c r="C167" s="8" t="s">
-        <v>542</v>
       </c>
       <c r="D167" s="6" t="s">
         <v>11</v>
@@ -7246,10 +7246,10 @@
         <v>10</v>
       </c>
       <c r="F167" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="G167" s="9" t="s">
         <v>543</v>
-      </c>
-      <c r="G167" s="9" t="s">
-        <v>544</v>
       </c>
       <c r="H167" s="6">
         <v>13</v>

--- a/Dim_Componentes_VSP.xlsx
+++ b/Dim_Componentes_VSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcjua\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAE4B26-77A6-49DE-BFD0-32461CF720BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC86D85-819F-4D13-9B5F-176F6CF0AEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6625EA50-83D4-486A-A0BA-E91AF6E8BE6B}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="551">
   <si>
     <t>Id_Global</t>
   </si>
@@ -1692,6 +1692,18 @@
   </si>
   <si>
     <t>|</t>
+  </si>
+  <si>
+    <t>xasdxws</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>s&lt;d</t>
+  </si>
+  <si>
+    <t>dsw</t>
   </si>
 </sst>
 </file>
@@ -2399,7 +2411,7 @@
   <dimension ref="A1:I167"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="E164" sqref="E164"/>
+      <selection activeCell="C157" sqref="C157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6947,7 +6959,7 @@
         <v>507</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>391</v>
+        <v>550</v>
       </c>
       <c r="D157" s="6" t="s">
         <v>63</v>
@@ -6976,7 +6988,7 @@
         <v>509</v>
       </c>
       <c r="C158" s="14" t="s">
-        <v>394</v>
+        <v>549</v>
       </c>
       <c r="D158" s="6" t="s">
         <v>11</v>
@@ -7008,7 +7020,7 @@
         <v>513</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>11</v>
+        <v>548</v>
       </c>
       <c r="E159" s="6">
         <v>15</v>
@@ -7159,7 +7171,7 @@
         <v>5</v>
       </c>
       <c r="F164" s="6" t="s">
-        <v>525</v>
+        <v>547</v>
       </c>
       <c r="G164" s="9" t="s">
         <v>42</v>

--- a/Dim_Componentes_VSP.xlsx
+++ b/Dim_Componentes_VSP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcjua\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcjua\Desktop\Tablas_Referencia_AT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC86D85-819F-4D13-9B5F-176F6CF0AEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F720D04B-7165-412E-9F8E-C8C5050545E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6625EA50-83D4-486A-A0BA-E91AF6E8BE6B}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="546">
   <si>
     <t>Id_Global</t>
   </si>
@@ -1664,6 +1664,9 @@
     <t>12_3_1</t>
   </si>
   <si>
+    <t>Todos los casos notificados, de mayores de 6 meses, deben tener una de las 3 opciones que contempla  la ficha de notificación (positiva, negativa, no se realizó)</t>
+  </si>
+  <si>
     <t>12_3</t>
   </si>
   <si>
@@ -1686,24 +1689,6 @@
   </si>
   <si>
     <t>Puntaje_Esperado</t>
-  </si>
-  <si>
-    <t>ddd</t>
-  </si>
-  <si>
-    <t>|</t>
-  </si>
-  <si>
-    <t>xasdxws</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>s&lt;d</t>
-  </si>
-  <si>
-    <t>dsw</t>
   </si>
 </sst>
 </file>
@@ -2410,8 +2395,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:I167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="C157" sqref="C157"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="C164" sqref="C164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2441,7 +2426,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -6959,7 +6944,7 @@
         <v>507</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>550</v>
+        <v>391</v>
       </c>
       <c r="D157" s="6" t="s">
         <v>63</v>
@@ -6988,7 +6973,7 @@
         <v>509</v>
       </c>
       <c r="C158" s="14" t="s">
-        <v>549</v>
+        <v>394</v>
       </c>
       <c r="D158" s="6" t="s">
         <v>11</v>
@@ -7020,7 +7005,7 @@
         <v>513</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>548</v>
+        <v>11</v>
       </c>
       <c r="E159" s="6">
         <v>15</v>
@@ -7138,8 +7123,8 @@
       <c r="D163" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E163" s="6" t="s">
-        <v>545</v>
+      <c r="E163" s="6">
+        <v>5</v>
       </c>
       <c r="F163" s="6" t="s">
         <v>525</v>
@@ -7171,7 +7156,7 @@
         <v>5</v>
       </c>
       <c r="F164" s="6" t="s">
-        <v>547</v>
+        <v>525</v>
       </c>
       <c r="G164" s="9" t="s">
         <v>42</v>
@@ -7220,7 +7205,7 @@
         <v>536</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="D166" s="6" t="s">
         <v>11</v>
@@ -7229,10 +7214,10 @@
         <v>15</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="G166" s="9" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H166" s="6">
         <v>12</v>
@@ -7243,13 +7228,13 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D167" s="6" t="s">
         <v>11</v>
@@ -7258,13 +7243,13 @@
         <v>10</v>
       </c>
       <c r="F167" s="6" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G167" s="9" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H167" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I167" s="6" t="s">
         <v>515</v>
